--- a/data/trans_orig/P14B30-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B30-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5958F78-E7CF-48F6-80AA-C4E527F5112D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE08FBF4-3CCE-456D-8741-BFC609BB0738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8B32FD88-B4DC-40DA-B3AF-A050D8FBD057}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8CAA480-2F16-4028-9B20-F339CE9AE153}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="148">
   <si>
     <t>Población cuya cirrosis le limita en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -114,7 +114,7 @@
     <t>27,66%</t>
   </si>
   <si>
-    <t>70,67%</t>
+    <t>70,62%</t>
   </si>
   <si>
     <t>67,33%</t>
@@ -129,7 +129,7 @@
     <t>72,34%</t>
   </si>
   <si>
-    <t>29,33%</t>
+    <t>29,38%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -138,43 +138,37 @@
     <t>77,79%</t>
   </si>
   <si>
-    <t>43,92%</t>
+    <t>44,09%</t>
   </si>
   <si>
     <t>80,48%</t>
   </si>
   <si>
-    <t>34,14%</t>
+    <t>21,22%</t>
   </si>
   <si>
     <t>78,78%</t>
   </si>
   <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>22,21%</t>
   </si>
   <si>
-    <t>56,08%</t>
+    <t>55,91%</t>
   </si>
   <si>
     <t>19,52%</t>
   </si>
   <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -186,13 +180,13 @@
     <t>83,6%</t>
   </si>
   <si>
-    <t>29,57%</t>
+    <t>37,76%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>56,06%</t>
+    <t>51,92%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -201,13 +195,13 @@
     <t>16,4%</t>
   </si>
   <si>
-    <t>70,43%</t>
+    <t>62,24%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>43,94%</t>
+    <t>48,08%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -252,55 +246,55 @@
     <t>75,49%</t>
   </si>
   <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
   </si>
   <si>
     <t>57,48%</t>
   </si>
   <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>67,01%</t>
   </si>
   <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
   </si>
   <si>
     <t>42,52%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
   </si>
   <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -324,85 +318,79 @@
     <t>17,2%</t>
   </si>
   <si>
-    <t>70,16%</t>
+    <t>69,94%</t>
   </si>
   <si>
     <t>82,8%</t>
   </si>
   <si>
-    <t>29,84%</t>
+    <t>30,06%</t>
   </si>
   <si>
     <t>82,84%</t>
   </si>
   <si>
-    <t>38,74%</t>
+    <t>31,44%</t>
   </si>
   <si>
     <t>61,55%</t>
   </si>
   <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>61,26%</t>
+    <t>68,56%</t>
   </si>
   <si>
     <t>38,45%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
   </si>
   <si>
     <t>54,07%</t>
   </si>
   <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
+    <t>15,39%</t>
   </si>
   <si>
     <t>59,57%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>45,93%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>84,58%</t>
+    <t>84,61%</t>
   </si>
   <si>
     <t>40,43%</t>
   </si>
   <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>75,65%</t>
+    <t>77,43%</t>
   </si>
   <si>
     <t>39,22%</t>
@@ -414,16 +402,16 @@
     <t>30,88%</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>24,35%</t>
+    <t>22,57%</t>
   </si>
   <si>
     <t>60,78%</t>
@@ -435,64 +423,64 @@
     <t>69,12%</t>
   </si>
   <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>43,22%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
   </si>
   <si>
     <t>56,78%</t>
   </si>
   <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
   </si>
 </sst>
 </file>
@@ -904,7 +892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B846D538-B0F3-4285-8590-EEE74F9D9539}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2EB68F-1BAF-43BD-9450-37B3FB3EB2AB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1541,7 +1529,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1550,13 +1538,13 @@
         <v>3162</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1612,7 +1600,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1627,7 +1615,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -1639,10 +1627,10 @@
         <v>5222</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -1654,10 +1642,10 @@
         <v>10701</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -1681,7 +1669,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1690,13 +1678,13 @@
         <v>1024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1705,13 +1693,13 @@
         <v>1024</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,7 +1755,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1779,7 +1767,7 @@
         <v>3076</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>17</v>
@@ -1794,13 +1782,13 @@
         <v>2176</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -1809,13 +1797,13 @@
         <v>5252</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,7 +1818,7 @@
         <v>2032</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
@@ -1845,10 +1833,10 @@
         <v>4324</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>14</v>
@@ -1860,13 +1848,13 @@
         <v>6356</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1922,13 @@
         <v>18821</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -1949,13 +1937,13 @@
         <v>12745</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -1964,13 +1952,13 @@
         <v>31565</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1973,13 @@
         <v>6112</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -2000,13 +1988,13 @@
         <v>9427</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -2015,13 +2003,13 @@
         <v>15539</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,7 +2065,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2099,7 +2087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A990F66F-EE6E-4671-92BE-528417681680}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27270478-0616-49AE-B4A7-443266424506}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2116,7 +2104,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2242,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2257,7 +2245,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2288,7 +2276,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>16</v>
@@ -2303,7 +2291,7 @@
         <v>14</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>16</v>
@@ -2378,7 +2366,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2408,7 +2396,7 @@
         <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2426,7 +2414,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2456,7 +2444,7 @@
         <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2527,13 +2515,13 @@
         <v>1019</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2555,13 +2543,13 @@
         <v>1019</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,10 +2564,10 @@
         <v>4904</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>14</v>
@@ -2604,10 +2592,10 @@
         <v>4904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>14</v>
@@ -2676,10 +2664,10 @@
         <v>4996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -2706,13 +2694,13 @@
         <v>4997</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2727,13 +2715,13 @@
         <v>1035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2757,13 +2745,13 @@
         <v>3121</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,7 +2807,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2831,13 +2819,13 @@
         <v>3895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2849,7 +2837,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -2861,13 +2849,13 @@
         <v>4877</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2870,13 @@
         <v>3309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2903,7 +2891,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2912,13 +2900,13 @@
         <v>3309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,7 +2962,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2986,13 +2974,13 @@
         <v>793</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3001,13 +2989,13 @@
         <v>3077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3016,13 +3004,13 @@
         <v>3869</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,10 +3025,10 @@
         <v>3892</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>14</v>
@@ -3052,10 +3040,10 @@
         <v>4768</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>14</v>
@@ -3067,13 +3055,13 @@
         <v>8661</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3129,13 @@
         <v>10703</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3156,13 +3144,13 @@
         <v>4058</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3171,13 +3159,13 @@
         <v>14760</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,13 +3180,13 @@
         <v>14061</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -3207,13 +3195,13 @@
         <v>9662</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -3222,13 +3210,13 @@
         <v>23723</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,7 +3272,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B30-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B30-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE08FBF4-3CCE-456D-8741-BFC609BB0738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2644B2F7-72DC-4BA4-B3A6-52290623CEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B8CAA480-2F16-4028-9B20-F339CE9AE153}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BC49620A-C1F0-465C-AC6F-EF04C652B6EE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="152">
   <si>
     <t>Población cuya cirrosis le limita en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -114,7 +114,7 @@
     <t>27,66%</t>
   </si>
   <si>
-    <t>70,62%</t>
+    <t>56,8%</t>
   </si>
   <si>
     <t>67,33%</t>
@@ -129,7 +129,7 @@
     <t>72,34%</t>
   </si>
   <si>
-    <t>29,38%</t>
+    <t>43,2%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -138,37 +138,43 @@
     <t>77,79%</t>
   </si>
   <si>
-    <t>44,09%</t>
+    <t>37,85%</t>
   </si>
   <si>
     <t>80,48%</t>
   </si>
   <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
     <t>21,22%</t>
   </si>
   <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -180,13 +186,13 @@
     <t>83,6%</t>
   </si>
   <si>
-    <t>37,76%</t>
+    <t>33,73%</t>
   </si>
   <si>
     <t>91,26%</t>
   </si>
   <si>
-    <t>51,92%</t>
+    <t>59,95%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -195,13 +201,13 @@
     <t>16,4%</t>
   </si>
   <si>
-    <t>62,24%</t>
+    <t>66,27%</t>
   </si>
   <si>
     <t>8,74%</t>
   </si>
   <si>
-    <t>48,08%</t>
+    <t>40,05%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -213,16 +219,16 @@
     <t>33,47%</t>
   </si>
   <si>
-    <t>83,12%</t>
+    <t>83,87%</t>
   </si>
   <si>
     <t>45,24%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
   </si>
   <si>
     <t>39,78%</t>
@@ -231,76 +237,76 @@
     <t>66,53%</t>
   </si>
   <si>
-    <t>16,88%</t>
+    <t>16,13%</t>
   </si>
   <si>
     <t>54,76%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>75,49%</t>
   </si>
   <si>
-    <t>51,73%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
   </si>
   <si>
     <t>57,48%</t>
   </si>
   <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>67,01%</t>
   </si>
   <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
   </si>
   <si>
     <t>24,51%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>48,27%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
   </si>
   <si>
     <t>42,52%</t>
   </si>
   <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
   </si>
   <si>
     <t>32,99%</t>
   </si>
   <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya cirrosis le limita en 2015 (Tasa respuesta: 0,52%)</t>
+    <t>Población cuya cirrosis le limita en 2016 (Tasa respuesta: 0,52%)</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -318,169 +324,175 @@
     <t>17,2%</t>
   </si>
   <si>
-    <t>69,94%</t>
+    <t>63,94%</t>
   </si>
   <si>
     <t>82,8%</t>
   </si>
   <si>
-    <t>30,06%</t>
+    <t>36,06%</t>
   </si>
   <si>
     <t>82,84%</t>
   </si>
   <si>
-    <t>31,44%</t>
+    <t>38,74%</t>
   </si>
   <si>
     <t>61,55%</t>
   </si>
   <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>17,16%</t>
   </si>
   <si>
-    <t>68,56%</t>
+    <t>61,26%</t>
   </si>
   <si>
     <t>38,45%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
   </si>
   <si>
     <t>54,07%</t>
   </si>
   <si>
-    <t>15,39%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
   </si>
   <si>
     <t>59,57%</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>45,93%</t>
   </si>
   <si>
-    <t>84,61%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
   </si>
   <si>
     <t>40,43%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>77,43%</t>
+    <t>75,88%</t>
   </si>
   <si>
     <t>39,22%</t>
   </si>
   <si>
-    <t>82,88%</t>
+    <t>85,83%</t>
   </si>
   <si>
     <t>30,88%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>83,08%</t>
   </si>
   <si>
-    <t>22,57%</t>
+    <t>24,12%</t>
   </si>
   <si>
     <t>60,78%</t>
   </si>
   <si>
-    <t>17,12%</t>
+    <t>14,17%</t>
   </si>
   <si>
     <t>69,12%</t>
   </si>
   <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
   </si>
   <si>
     <t>43,22%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>38,36%</t>
   </si>
   <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
   </si>
   <si>
     <t>56,78%</t>
   </si>
   <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>70,42%</t>
   </si>
   <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>61,64%</t>
   </si>
   <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
   </si>
 </sst>
 </file>
@@ -892,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE2EB68F-1BAF-43BD-9450-37B3FB3EB2AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB3B06B-555B-4499-8CDD-5C1C5FC5477B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1529,7 +1541,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1538,13 +1550,13 @@
         <v>3162</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1600,7 +1612,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1615,7 +1627,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -1627,10 +1639,10 @@
         <v>5222</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -1642,10 +1654,10 @@
         <v>10701</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -1669,7 +1681,7 @@
         <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1678,13 +1690,13 @@
         <v>1024</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1693,13 +1705,13 @@
         <v>1024</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1755,7 +1767,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1767,7 +1779,7 @@
         <v>3076</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>17</v>
@@ -1782,13 +1794,13 @@
         <v>2176</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -1797,13 +1809,13 @@
         <v>5252</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1818,7 +1830,7 @@
         <v>2032</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>17</v>
@@ -1833,10 +1845,10 @@
         <v>4324</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>14</v>
@@ -1848,13 +1860,13 @@
         <v>6356</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1922,13 +1934,13 @@
         <v>18821</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -1937,13 +1949,13 @@
         <v>12745</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -1952,13 +1964,13 @@
         <v>31565</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1973,13 +1985,13 @@
         <v>6112</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -1988,13 +2000,13 @@
         <v>9427</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -2003,13 +2015,13 @@
         <v>15539</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2065,7 +2077,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2099,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27270478-0616-49AE-B4A7-443266424506}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7E09D0-DE13-473D-A551-013AD874D0C1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2104,7 +2116,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2230,7 +2242,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2245,7 +2257,7 @@
         <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,7 +2288,7 @@
         <v>14</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>16</v>
@@ -2291,7 +2303,7 @@
         <v>14</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>16</v>
@@ -2366,7 +2378,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2396,7 +2408,7 @@
         <v>18</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2414,7 +2426,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>16</v>
@@ -2444,7 +2456,7 @@
         <v>14</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2515,13 +2527,13 @@
         <v>1019</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2543,13 +2555,13 @@
         <v>1019</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2564,10 +2576,10 @@
         <v>4904</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>14</v>
@@ -2592,10 +2604,10 @@
         <v>4904</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>14</v>
@@ -2664,10 +2676,10 @@
         <v>4996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -2694,13 +2706,13 @@
         <v>4997</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2715,13 +2727,13 @@
         <v>1035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2745,13 +2757,13 @@
         <v>3121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2819,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2819,13 +2831,13 @@
         <v>3895</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2837,7 +2849,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -2849,13 +2861,13 @@
         <v>4877</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2870,13 +2882,13 @@
         <v>3309</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2891,7 +2903,7 @@
         <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2900,13 +2912,13 @@
         <v>3309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,7 +2974,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2974,13 +2986,13 @@
         <v>793</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2989,13 +3001,13 @@
         <v>3077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3004,13 +3016,13 @@
         <v>3869</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,10 +3037,10 @@
         <v>3892</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>14</v>
@@ -3040,10 +3052,10 @@
         <v>4768</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>14</v>
@@ -3055,13 +3067,13 @@
         <v>8661</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3141,13 @@
         <v>10703</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3144,13 +3156,13 @@
         <v>4058</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -3159,13 +3171,13 @@
         <v>14760</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,13 +3192,13 @@
         <v>14061</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -3195,13 +3207,13 @@
         <v>9662</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -3210,13 +3222,13 @@
         <v>23723</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,7 +3284,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
